--- a/劫镖计算/test.xlsx
+++ b/劫镖计算/test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\97738\Desktop\call_me_DZG_judger_for_HuBiaoTasks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\97738\Desktop\call_me_DZG_judger_for_HuBiaoTasks\劫镖计算\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{549ECBBC-2224-45FB-A0A9-11539497CAA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03FD003E-F6A2-4722-9AE0-E8B7BD3DD92D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="18840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="18840" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="my-data" sheetId="1" r:id="rId1"/>
@@ -18,15 +18,27 @@
     <sheet name="enemy-sanrenhe" sheetId="3" r:id="rId3"/>
     <sheet name="enemy-shanhaiboring" sheetId="5" r:id="rId4"/>
     <sheet name="enemy-wuyanzu" sheetId="8" r:id="rId5"/>
-    <sheet name="Sheet3" sheetId="6" r:id="rId6"/>
-    <sheet name="enemy-ruizedalang" sheetId="7" r:id="rId7"/>
+    <sheet name="enemy-ruizedalang" sheetId="7" r:id="rId6"/>
+    <sheet name="enemy-ruizexiaowei" sheetId="9" r:id="rId7"/>
+    <sheet name="enemy-ruizesuiyuan" sheetId="10" r:id="rId8"/>
+    <sheet name="enemies" sheetId="6" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="66">
   <si>
     <t>Name</t>
   </si>
@@ -237,6 +249,38 @@
   </si>
   <si>
     <t>enemy-wuyanzu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>锐泽小魏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>enemy-ruizexiaowei</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新娘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>静阉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>嬷嬷</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>梦琪儿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>锐泽随缘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>enemy-ruizesuiyuan</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -793,7 +837,7 @@
   </sheetPr>
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
@@ -1566,11 +1610,831 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E446786-6D8D-47C9-8F02-2B87A1CB5266}">
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1326C1B-0E86-4CCC-9A03-FD4D00691CF7}">
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="G50" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26">
+        <v>129</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39C2BE39-4E6C-4E2C-8E34-2BB0DCAB511E}">
+  <dimension ref="A1:B31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2">
+        <v>2724</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3">
+        <v>4009</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27">
+        <v>10382</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AC62C21-2FC4-4E37-B6CD-74602EFB73E9}">
+  <dimension ref="A1:C43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2">
+        <v>2042</v>
+      </c>
+      <c r="C2">
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3">
+        <v>4035</v>
+      </c>
+      <c r="C3">
+        <v>4157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4">
+        <v>599</v>
+      </c>
+      <c r="C4">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5">
+        <v>1034</v>
+      </c>
+      <c r="C5">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6">
+        <v>55</v>
+      </c>
+      <c r="C6">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7">
+        <v>179</v>
+      </c>
+      <c r="C7">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8">
+        <v>491</v>
+      </c>
+      <c r="C8">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9">
+        <v>325</v>
+      </c>
+      <c r="C9">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10">
+        <v>245</v>
+      </c>
+      <c r="C10">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11">
+        <v>235</v>
+      </c>
+      <c r="C11">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12">
+        <v>263</v>
+      </c>
+      <c r="C12">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13">
+        <v>189</v>
+      </c>
+      <c r="C13">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14">
+        <v>164</v>
+      </c>
+      <c r="C14">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15">
+        <v>200</v>
+      </c>
+      <c r="C15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16">
+        <v>207</v>
+      </c>
+      <c r="C16">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17">
+        <v>118</v>
+      </c>
+      <c r="C17">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18">
+        <v>151</v>
+      </c>
+      <c r="C18">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19">
+        <v>191</v>
+      </c>
+      <c r="C19">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20">
+        <v>161</v>
+      </c>
+      <c r="C20">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21">
+        <v>115</v>
+      </c>
+      <c r="C21">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>54</v>
+      </c>
+      <c r="B38">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>55</v>
+      </c>
+      <c r="B39">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>60</v>
+      </c>
+      <c r="B40">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>61</v>
+      </c>
+      <c r="B41">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>62</v>
+      </c>
+      <c r="B42">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>63</v>
+      </c>
+      <c r="B43">
+        <v>99999</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E446786-6D8D-47C9-8F02-2B87A1CB5266}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1619,228 +2483,20 @@
         <v>57</v>
       </c>
     </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1326C1B-0E86-4CCC-9A03-FD4D00691CF7}">
-  <dimension ref="A1:B26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D43" sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2">
-        <v>1221</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5">
-        <v>313</v>
-      </c>
-    </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6">
-        <v>529</v>
+        <v>58</v>
+      </c>
+      <c r="B6" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7">
-        <v>99999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15">
-        <v>99999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17">
-        <v>99999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
-        <v>53</v>
-      </c>
-      <c r="B23">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
-        <v>43</v>
-      </c>
-      <c r="B24">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
-        <v>54</v>
-      </c>
-      <c r="B25">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
-        <v>55</v>
-      </c>
-      <c r="B26">
-        <v>129</v>
+        <v>64</v>
+      </c>
+      <c r="B7" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
